--- a/data vis /variability metadata.xlsx
+++ b/data vis /variability metadata.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/data vis /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD72F53-2872-5248-955C-D5CC4AB35446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA77A48-F05F-2846-A258-4415CC520E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>study id</t>
   </si>
@@ -94,16 +94,240 @@
   </si>
   <si>
     <t>mean of 25 or 18 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data availability </t>
+  </si>
+  <si>
+    <t>khelifa_2019</t>
+  </si>
+  <si>
+    <t>descamps-julien_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_2007 </t>
+  </si>
+  <si>
+    <t>orland_2004</t>
+  </si>
+  <si>
+    <t>gonzalez&amp;holt_2002</t>
+  </si>
+  <si>
+    <t>matthews_2007</t>
+  </si>
+  <si>
+    <t>fontaine&amp;gonzalez_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushkar_2010 </t>
+  </si>
+  <si>
+    <t>seuffert_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du_2003 </t>
+  </si>
+  <si>
+    <t>petavy_2001</t>
+  </si>
+  <si>
+    <t>hilbeck_1998</t>
+  </si>
+  <si>
+    <t>shrode_1977</t>
+  </si>
+  <si>
+    <t>resilva_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peng_2014 </t>
+  </si>
+  <si>
+    <t>zhao_2014</t>
+  </si>
+  <si>
+    <t>foray_2014</t>
+  </si>
+  <si>
+    <t>klepsatel_2013</t>
+  </si>
+  <si>
+    <t>duncan_2011</t>
+  </si>
+  <si>
+    <t>radmacher_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barfield_1978 </t>
+  </si>
+  <si>
+    <t>butler_1980</t>
+  </si>
+  <si>
+    <t>butler_1966</t>
+  </si>
+  <si>
+    <t>butler_1968</t>
+  </si>
+  <si>
+    <t>davis_2006</t>
+  </si>
+  <si>
+    <t>eubank_1973</t>
+  </si>
+  <si>
+    <t>fielding_1988</t>
+  </si>
+  <si>
+    <t>hagstrum_1991</t>
+  </si>
+  <si>
+    <t>harries_1948</t>
+  </si>
+  <si>
+    <t>joshi_1996</t>
+  </si>
+  <si>
+    <t>kingsolver_2015</t>
+  </si>
+  <si>
+    <t>lin_1954</t>
+  </si>
+  <si>
+    <t>ludwig_1933</t>
+  </si>
+  <si>
+    <t>messenger_1969</t>
+  </si>
+  <si>
+    <t>niehaus_2012</t>
+  </si>
+  <si>
+    <t>siddiqui_1972</t>
+  </si>
+  <si>
+    <t>simonet_1981</t>
+  </si>
+  <si>
+    <t>petchey_2000</t>
+  </si>
+  <si>
+    <t>petchey_2002</t>
+  </si>
+  <si>
+    <t>gonzalez_2004</t>
+  </si>
+  <si>
+    <t>luckinbill_1978</t>
+  </si>
+  <si>
+    <t>laakso_2003</t>
+  </si>
+  <si>
+    <t>estay_2011</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>data availability links</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.fc75292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>https://figshare.com/collections/STABLE_COEXISTENCE_IN_A_FLUCTUATING_ENVIRONMENT_AN_EXPERIMENTAL_DEMONSTRATION/3298823</t>
+  </si>
+  <si>
+    <t>data location</t>
+  </si>
+  <si>
+    <t>dryad</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indvidual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">development rate </t>
+  </si>
+  <si>
+    <t>temp amplitude</t>
+  </si>
+  <si>
+    <t>18, plus or minus 3 or 7 degrees</t>
+  </si>
+  <si>
+    <t>TPC, applicability of TPC from constant or flux environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negligible differences between temperature controlled constant and fluctuating treatments when accounting for non-linearities, the stochastic natural treatment did not line up with TPC in lab </t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>coexistence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population, community </t>
+  </si>
+  <si>
+    <t>population density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">white or red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color of environmental noise, coexistence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp variation encourages persistance of two species on one limiting resource?, though coexistence is not strongly sensitive to periodicity of flux </t>
+  </si>
+  <si>
+    <t>immigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community </t>
+  </si>
+  <si>
+    <t>immigration, competition</t>
+  </si>
+  <si>
+    <t>competition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +350,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,15 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F1B9DB-E956-9840-8A22-A19B07644F01}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,51 +717,198 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -568,8 +942,311 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{50CE8097-31AD-974B-B0CE-9E409BB4A1EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data vis /variability metadata.xlsx
+++ b/data vis /variability metadata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/data vis /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA77A48-F05F-2846-A258-4415CC520E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0168E4FF-53C8-C742-A6BA-D07F0AF07757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>study id</t>
   </si>
@@ -310,6 +311,24 @@
   </si>
   <si>
     <t>competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">population density, population variability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutrient level </t>
+  </si>
+  <si>
+    <t>about of prey available</t>
+  </si>
+  <si>
+    <t>fluctuation color</t>
+  </si>
+  <si>
+    <t>temporally autcorrelated variability enhanced the effect of immgration, "inflationary effect"</t>
   </si>
 </sst>
 </file>
@@ -675,7 +694,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,6 +868,9 @@
       <c r="K4" t="s">
         <v>94</v>
       </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
       <c r="M4" t="s">
         <v>75</v>
       </c>
@@ -859,6 +881,21 @@
       </c>
       <c r="B5" t="s">
         <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
       </c>
       <c r="M5" t="s">
         <v>75</v>

--- a/data vis /variability metadata.xlsx
+++ b/data vis /variability metadata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/data vis /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0168E4FF-53C8-C742-A6BA-D07F0AF07757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A3C64-A9B7-044A-BA28-33DAD4371B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
+    <workbookView xWindow="36040" yWindow="-12700" windowWidth="27640" windowHeight="16600" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="column info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="251">
   <si>
     <t>study id</t>
   </si>
@@ -322,13 +322,468 @@
     <t xml:space="preserve">nutrient level </t>
   </si>
   <si>
-    <t>about of prey available</t>
-  </si>
-  <si>
-    <t>fluctuation color</t>
-  </si>
-  <si>
     <t>temporally autcorrelated variability enhanced the effect of immgration, "inflationary effect"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflationary effects </t>
+  </si>
+  <si>
+    <t>sink source dynamics</t>
+  </si>
+  <si>
+    <t>shown that the inflationary effect of temporal variability is magnified if this variability is autocorrelated, results suggest that sink habitats might substantially contribute to total abundance of specie in fluctuation environments</t>
+  </si>
+  <si>
+    <t>environmental resource variability will only translate into population variability when the fluctuations occur on a long time scale relative to the time scale on which the organisms operate.</t>
+  </si>
+  <si>
+    <t>dispersal</t>
+  </si>
+  <si>
+    <t>amount of prey available</t>
+  </si>
+  <si>
+    <t>perturbtion cycle length</t>
+  </si>
+  <si>
+    <t>dispersal and low spatial synchrony, enhanced by autocorrelated temporal variation in growth, can increase mean population densities, generate outbreak dynamics, and allow for long-term sink metapopulation persistence.</t>
+  </si>
+  <si>
+    <t>sink-source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population density </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutrient levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">synchrony </t>
+  </si>
+  <si>
+    <t>population persistence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population interactions and dynamics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporal structure of environmental variability (relative strength of the component frequencies) may be important in determining the efficacy of the Moran effect; in the absence of dispersal, only reddened resource fluctuations has substantial sychronizing effect over the two experimental intervals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">predator prey, community </t>
+  </si>
+  <si>
+    <t xml:space="preserve">environmental synchrony </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispersal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prey density </t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatments experiencing the moran effect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">either independent variability or predictable variability </t>
+  </si>
+  <si>
+    <t>synchrony, phase-locking</t>
+  </si>
+  <si>
+    <t>population dynamics, community implications</t>
+  </si>
+  <si>
+    <t>synchrony depends on cyclic dynamics generated by the predator;  dispersal, but not the Moran effect, ‘phase-locks’ cycles, which otherwise
+become ‘decoherent’ and drift out of phase; without cycles,  phase-locking is not possible and the synchronizing effect of dispersal is negligible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth rate, weight gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus or minus 2 degrees from constant temperatures </t>
+  </si>
+  <si>
+    <t>diurnal cycles</t>
+  </si>
+  <si>
+    <t>organismal performance</t>
+  </si>
+  <si>
+    <t>Short term periodic fluctuations of temperature within the limits of the stationary temperature optimum for Nile tilapia and water lettuce cause a significant increase in the growth rate and an improvement
+of the production and energetic parameters in aquatic organisms when compared to the parameters observed at constant thermal regimes optimal for growth</t>
+  </si>
+  <si>
+    <t>individual, population?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organism acitivity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-8 C </t>
+  </si>
+  <si>
+    <t>frequency of snails active had positive relationship to temperature during both cooling and warming phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body mass, carapace width, sprint speed </t>
+  </si>
+  <si>
+    <t>22.3-32.8 C</t>
+  </si>
+  <si>
+    <t>ambient temperature fluctuations?</t>
+  </si>
+  <si>
+    <t>the one fluctuating treatment seems to compete with the best constant tratement for hatchling success, while other fluctuations perform poorly?</t>
+  </si>
+  <si>
+    <t>individua</t>
+  </si>
+  <si>
+    <t>phenotypic variability, wing:thorax ratio, thorax length, sex dimorphism, wing length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternated between two different temperatures </t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1046/j.0307-6962.2001.00255.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host-parasite, community </t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival, development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp range </t>
+  </si>
+  <si>
+    <t>22 to 30 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diurnal cycles, one fluctuating treatment </t>
+  </si>
+  <si>
+    <t>fluctuating regime showed decrese wing and thorax ratios,  most of all responses were most affected by thermal amplitude of fluctuating treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differences in beetlel origins show differential  and low success  from the northern location as compared to southern locatio in the ability to cope with fluctuating treatment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg production, egg quality, reproductive tolerance range </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>31-28 and 26-28 C</t>
+  </si>
+  <si>
+    <t>diurnal cycles, two fluctuating treatments</t>
+  </si>
+  <si>
+    <t>under the cycling regimes utilized in this study, pupfish responded to a temperature between the extremes in terms of their reproductive performance. (i.e. closer to the constant mean of the fluctuating treatment than the limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes in eye color, development time, </t>
+  </si>
+  <si>
+    <t>20-35 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural conditions </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S1742758414000095</t>
+  </si>
+  <si>
+    <t>thermal tolerance, swimming capacity, specific dynamic action, growth performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no specific information n how natural conditions compared to other conditions, more interest in differential species responses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diel fluctuation </t>
+  </si>
+  <si>
+    <t>20 plus or minus 5; 12hrs at 25 C and 12hr at 15 C</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.cbpa.2014.07.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longevity, fecundity, development time </t>
+  </si>
+  <si>
+    <t>diel fluctuating group performance fell in between the range of the constant temperature treatments</t>
+  </si>
+  <si>
+    <t>27 to 35 then to 13, 16, 19, 21, 23, 25 C</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.q2070</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.q2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night warming raised optimal temperature for development with 3 C; did not display jensen's inquality, instead suggesting thermal adaptation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus or minus 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size, developmental rate, egg load, longevity, energetic resource reaction norms, phenotypic responses </t>
+  </si>
+  <si>
+    <t>3 hour period, nycthemeral rhythm</t>
+  </si>
+  <si>
+    <t>doi: 10.1111/1365-2435.12171</t>
+  </si>
+  <si>
+    <t>doi:10.1111/evo.12221</t>
+  </si>
+  <si>
+    <t>based on location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highlights importance on jensen's inequality  by showing that the shape of reaction forms define the phenotypics changes induced by development under fluctuating thermal conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thermal reaction norms for thorax length, wing area, ovariole number </t>
+  </si>
+  <si>
+    <t>there are difference in TPC based on location?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPC </t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.vc1q1</t>
+  </si>
+  <si>
+    <t>doi:10.1098/rspb.2011.0287</t>
+  </si>
+  <si>
+    <t>alternating between 23 and 35 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population dynamics </t>
+  </si>
+  <si>
+    <t>population, predator-prey</t>
+  </si>
+  <si>
+    <t>population density , density fluctuation, prevalence, parasite extinction</t>
+  </si>
+  <si>
+    <t>variable and high temps causes greater delines in population and greater fluxes in population size and higher rates of extinction, parasite introduction exacerbated these effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-25, 15-30, 20-35 </t>
+  </si>
+  <si>
+    <t>DOI : 10.1007/s13592-011-0078-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thermal performance </t>
+  </si>
+  <si>
+    <t>prepupal weight, mortality, development time</t>
+  </si>
+  <si>
+    <t>fluctuating regime accelerated development in most development and all temp ranges however, prepupal weight decreased less under fluctuating conditions than constant</t>
+  </si>
+  <si>
+    <t>development time, development rate, percent survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 temperature ranges, 2 based on natural conditions and 2 random conditions </t>
+  </si>
+  <si>
+    <t>model data correlates with result data, but not entirely sure what this means in terms of comparing fluctuation to constant temps</t>
+  </si>
+  <si>
+    <t>plus or minus 16.7</t>
+  </si>
+  <si>
+    <t>development time (emergence date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similar results in performance between fluctuating and constant temps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">development time, time to death </t>
+  </si>
+  <si>
+    <t>55-75, 65-85, 75-95, 85-105 F</t>
+  </si>
+  <si>
+    <t>no significant differences between the rate of development under constant and fluctuating temperature programs during the larval, pupal, egg-to-pupal, or egg-to-adult
+periods.</t>
+  </si>
+  <si>
+    <t>50-77, 59-86, 68-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing to report about comparison between flux and constant treatments </t>
+  </si>
+  <si>
+    <t>individual, host-parasite</t>
+  </si>
+  <si>
+    <t>survivorship, number of progeny per female</t>
+  </si>
+  <si>
+    <t>variation type (pulse or flux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 different ranges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluctuating temperatures enhanced survuvorship at lowest and highest temperatures, death at higher temperature consistently demonstrated limits to thermal performance, </t>
+  </si>
+  <si>
+    <t>plus or minus 5, 10, or 20 F</t>
+  </si>
+  <si>
+    <t>development time , development rate</t>
+  </si>
+  <si>
+    <t>32.2-21.1, 25.6-15.6, 23.9-10.0</t>
+  </si>
+  <si>
+    <t>larval emergence times of the fluctuating regimes are advanced, retarded, or essentially remain unchanged from the same static temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree days for egg hatch, survival rate, teneral adult weight , mesothoracic femur length </t>
+  </si>
+  <si>
+    <t>model accounting for fluctuation in termpature had error of less than 10%, indictaing that DD egg stage was linear. However, model under predicted nymphal developmental times, fluctuating temps accelerated processes</t>
+  </si>
+  <si>
+    <t>plus or minos 5</t>
+  </si>
+  <si>
+    <t>temp range, amplitude</t>
+  </si>
+  <si>
+    <t>developmental time</t>
+  </si>
+  <si>
+    <t>development times significantly longer at constant than at fluctuating temperature with similar means. At 30 c, development times were the same between constant and fluctuating treatments</t>
+  </si>
+  <si>
+    <t>temp ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 different ranges, some 10 different and other 15 degrees different </t>
+  </si>
+  <si>
+    <t>accelerate performance and limits amount of exposure time with increasing temperatures</t>
+  </si>
+  <si>
+    <t>duration of egg stage, duration of nymphal stage, duration of preovipostion period, daily rate of egg laying</t>
+  </si>
+  <si>
+    <t>16-12, 22-14, 26-18, 30-22, 33-27 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developmental time, longevity, fecundity </t>
+  </si>
+  <si>
+    <t>development times differed in males but not females when exposes to constant vs. fluctuating regimes, appears to increase with fluctuating temperatures</t>
+  </si>
+  <si>
+    <t>plus or minus 5 or 10 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short term larval growth rate, time to 5th instar, mass and development time, growth rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">larvae reared in diurnally fluctuating
+temperatures had significantly higher optimal temperatures and
+maximal growth rates than larvae reared in constant temperatures; both short and long term thermal performance curves yield poor predictions for non-linear effects of flux treatment on mean growth rates at higher temperatures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent hatched, duration, rate, total percent development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration exposed to high temperature </t>
+  </si>
+  <si>
+    <t>alternating between 13 and 20, 13 and 25, 14 and 20, and 14 and 25, for 2,4,6 hours at the high temperature</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternated between two different temperatures, 13 different ranges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">they are basically establishing thermal optima and that if the fluctuating treatments operate beyond those limits, development will be stunted or diminished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">development time, percentage development </t>
+  </si>
+  <si>
+    <t>developmental rate, egg-larval development time, pupal development time, total development time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 different ranges of varying width </t>
+  </si>
+  <si>
+    <t>bacterial concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food supply </t>
+  </si>
+  <si>
+    <t>body length, maximal jump distanc, mass at metamorphosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival rate (longevity), percent mortality immature stages, developmental time, time to 50% mortality, total fecundity , innate capacity for increase </t>
+  </si>
+  <si>
+    <t>18-32 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluctuating temperatures accelerated growth and earlier metamorphosism fluctuating frogs also had smaller mass but had larger maximal jump distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternating between 5 different sets of temperatures </t>
+  </si>
+  <si>
+    <t>egg development time, larva development time, prepupa development time, pupal development time, total development time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4-18.3 C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">population density, population variability, population variability, colour of population dynamics </t>
+  </si>
+  <si>
+    <t>community biomass</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>mean cell size</t>
+  </si>
+  <si>
+    <t>food suuply</t>
   </si>
 </sst>
 </file>
@@ -352,12 +807,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -373,9 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,599 +1155,1766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F1B9DB-E956-9840-8A22-A19B07644F01}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>83</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>90</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>74</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>88</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
       <c r="M4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>97</v>
       </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
       <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
       <c r="M5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s">
+        <v>188</v>
+      </c>
+      <c r="L35" t="s">
+        <v>127</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
+        <v>188</v>
+      </c>
+      <c r="L37" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s">
+        <v>188</v>
+      </c>
+      <c r="L39" t="s">
+        <v>127</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
+        <v>237</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>238</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{50CE8097-31AD-974B-B0CE-9E409BB4A1EA}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{50CE8097-31AD-974B-B0CE-9E409BB4A1EA}"/>
+    <hyperlink ref="P19" r:id="rId2" xr:uid="{E530F543-2DC4-124A-9397-9082B49070A1}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2F570D-A90A-A544-ADCF-8B044F47B3CA}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data vis /variability metadata.xlsx
+++ b/data vis /variability metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/data vis /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A3C64-A9B7-044A-BA28-33DAD4371B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399723BB-4085-504E-ABD1-1B687EFCE424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36040" yWindow="-12700" windowWidth="27640" windowHeight="16600" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="column info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1158,8 +1159,8 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A46"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
